--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -710,22 +710,22 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -770,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -803,7 +803,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
         <v>51</v>
@@ -865,22 +865,22 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
         <v>3.9</v>
@@ -1584,10 +1584,10 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1598,10 +1598,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1707,28 +1707,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1742,7 +1742,7 @@
         <v>2.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1759,16 +1759,16 @@
         <v>2.63</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC9" t="n">
         <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
@@ -1795,7 +1795,7 @@
         <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN9" t="n">
         <v>8</v>
@@ -1804,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
         <v>29</v>
@@ -1863,7 +1863,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1883,7 +1883,7 @@
         <v>2.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -2024,7 +2024,7 @@
         <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2130,22 +2130,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2165,7 +2165,7 @@
         <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2182,25 +2182,25 @@
         <v>2.63</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>9</v>
       </c>
       <c r="AF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG12" t="n">
         <v>19</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>29</v>
@@ -2221,22 +2221,22 @@
         <v>301</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>12</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2280,7 +2280,7 @@
         <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K13" t="n">
         <v>2.4</v>
@@ -2303,7 +2303,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
         <v>2.1</v>
@@ -2311,10 +2311,10 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y13" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -707,13 +707,13 @@
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -722,10 +722,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -746,10 +746,10 @@
         <v>1.17</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA2" t="n">
         <v>2.25</v>
@@ -758,7 +758,7 @@
         <v>1.57</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -803,7 +803,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>51</v>
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -883,10 +883,10 @@
         <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -910,10 +910,10 @@
         <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>23</v>
@@ -940,7 +940,7 @@
         <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -949,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1062,13 +1062,13 @@
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1098,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1139,28 +1139,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="L5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="O5" t="n">
         <v>1.65</v>
@@ -1171,15 +1171,15 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="T5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X5" t="n">
         <v>1.12</v>
@@ -1188,7 +1188,7 @@
         <v>1.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA5" t="n">
         <v>2.18</v>
@@ -1197,28 +1197,28 @@
         <v>1.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
         <v>55</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AK5" t="n">
         <v>18</v>
@@ -1230,19 +1230,19 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
         <v>45</v>
       </c>
       <c r="AR5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS5" t="n">
         <v>60</v>
@@ -1280,22 +1280,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="J6" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1320,7 +1320,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="X6" t="n">
         <v>1.18</v>
@@ -1332,61 +1332,61 @@
         <v>2.35</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AC6" t="n">
         <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="n">
         <v>5.4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
         <v>101</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
         <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -1427,7 +1427,7 @@
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1439,22 +1439,22 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
         <v>2.75</v>
@@ -1516,7 +1516,7 @@
         <v>501</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1598,10 +1598,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1742,7 +1742,7 @@
         <v>2.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1863,7 +1863,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1883,7 +1883,7 @@
         <v>2.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -2024,7 +2024,7 @@
         <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2139,7 +2139,7 @@
         <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
@@ -2165,7 +2165,7 @@
         <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2271,16 +2271,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
         <v>2.4</v>
@@ -2292,7 +2292,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2303,7 +2303,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T13" t="n">
         <v>2.1</v>
@@ -2332,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
@@ -2362,7 +2362,7 @@
         <v>301</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -710,10 +710,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -722,10 +722,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -752,10 +752,10 @@
         <v>2.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
@@ -770,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -791,10 +791,10 @@
         <v>1250</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
@@ -1005,7 +1005,7 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1059,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1080,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>67</v>
@@ -1089,10 +1089,10 @@
         <v>1250</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="H5" t="n">
         <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="L5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
@@ -1197,19 +1197,19 @@
         <v>1.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AD5" t="n">
         <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF5" t="n">
         <v>37</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="n">
         <v>55</v>
@@ -1218,7 +1218,7 @@
         <v>4.45</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AK5" t="n">
         <v>18</v>
@@ -1230,22 +1230,22 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>45</v>
       </c>
       <c r="AR5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2010,13 +2010,13 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -2133,68 +2133,68 @@
         <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
         <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB12" t="n">
         <v>1.8</v>
       </c>
-      <c r="AB12" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2203,25 +2203,25 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>6.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2233,10 +2233,10 @@
         <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2292,7 +2292,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2303,18 +2303,18 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y13" t="n">
         <v>1.33</v>
@@ -2412,71 +2412,71 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="X14" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
         <v>21</v>
@@ -2488,7 +2488,7 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>6.5</v>
@@ -2503,16 +2503,16 @@
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -1280,22 +1280,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
         <v>2.85</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1307,23 +1307,23 @@
         <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y6" t="n">
         <v>1.53</v>
@@ -1332,28 +1332,28 @@
         <v>2.35</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AD6" t="n">
         <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>5.4</v>
@@ -1362,22 +1362,22 @@
         <v>5.6</v>
       </c>
       <c r="AK6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
         <v>101</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO6" t="n">
         <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>22</v>
@@ -1386,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1433,7 +1433,7 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
         <v>4.33</v>
@@ -1451,10 +1451,10 @@
         <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
         <v>2.75</v>
@@ -1477,13 +1477,13 @@
         <v>2.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
         <v>9.5</v>
@@ -1501,7 +1501,7 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1516,7 +1516,7 @@
         <v>501</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1531,7 +1531,7 @@
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1581,7 +1581,7 @@
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1618,10 +1618,10 @@
         <v>2.63</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
@@ -1657,16 +1657,16 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
@@ -1725,10 +1725,10 @@
         <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1739,18 +1739,18 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" t="n">
         <v>1.44</v>
@@ -1848,22 +1848,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1900,16 +1900,16 @@
         <v>2.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AC10" t="n">
         <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1933,7 +1933,7 @@
         <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
         <v>401</v>
@@ -1942,13 +1942,13 @@
         <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>9</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
         <v>17</v>
@@ -2021,10 +2021,10 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2271,16 +2271,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K13" t="n">
         <v>2.4</v>
@@ -2332,13 +2332,13 @@
         <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
@@ -2362,13 +2362,13 @@
         <v>301</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>41</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>81</v>
@@ -2464,10 +2464,10 @@
         <v>2.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -707,7 +707,7 @@
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -722,10 +722,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -752,10 +752,10 @@
         <v>2.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
@@ -770,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -791,10 +791,10 @@
         <v>1250</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -871,16 +871,16 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U3" t="n">
         <v>3.95</v>
@@ -1008,10 +1008,10 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1427,22 +1427,22 @@
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1451,10 +1451,10 @@
         <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
         <v>2.75</v>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
@@ -1725,10 +1725,10 @@
         <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1759,10 +1759,10 @@
         <v>2.63</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC9" t="n">
         <v>7.5</v>
@@ -1771,7 +1771,7 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
@@ -1866,10 +1866,10 @@
         <v>2.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1880,24 +1880,24 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA10" t="n">
         <v>1.95</v>
@@ -1909,7 +1909,7 @@
         <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1942,7 +1942,7 @@
         <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
         <v>9</v>
@@ -1954,7 +1954,7 @@
         <v>17</v>
       </c>
       <c r="AS10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -2280,7 +2280,7 @@
         <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
         <v>2.4</v>
@@ -2430,10 +2430,10 @@
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2464,10 +2464,10 @@
         <v>2.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AC14" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -698,10 +698,10 @@
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
@@ -722,22 +722,22 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -767,7 +767,7 @@
         <v>9.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -797,13 +797,13 @@
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
         <v>51</v>
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -865,25 +865,25 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.98</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
@@ -907,19 +907,19 @@
         <v>1.67</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -928,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
@@ -940,19 +940,19 @@
         <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
         <v>13</v>
       </c>
-      <c r="AP3" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
         <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>41</v>
@@ -1020,16 +1020,16 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U4" t="n">
         <v>4.2</v>
@@ -1139,113 +1139,113 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>1.72</v>
       </c>
       <c r="L5" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="X5" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AR5" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1280,113 +1280,113 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>2.87</v>
       </c>
       <c r="H6" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="L6" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>18</v>
       </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17</v>
-      </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AR6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AS6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1427,7 +1427,7 @@
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1439,16 +1439,16 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1457,18 +1457,18 @@
         <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y7" t="n">
         <v>1.62</v>
@@ -1598,10 +1598,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1707,28 +1707,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1765,19 +1765,19 @@
         <v>1.91</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG9" t="n">
         <v>23</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
@@ -1789,28 +1789,28 @@
         <v>6.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN9" t="n">
         <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS9" t="n">
         <v>34</v>
@@ -1880,18 +1880,18 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y10" t="n">
         <v>1.44</v>
@@ -2021,18 +2021,18 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y11" t="n">
         <v>1.44</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2436,18 +2436,18 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2467,28 +2467,28 @@
         <v>1.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>6.5</v>
@@ -2503,22 +2503,22 @@
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -850,10 +850,10 @@
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L3" t="n">
         <v>4.5</v>
@@ -865,25 +865,25 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
@@ -1002,7 +1002,7 @@
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L4" t="n">
         <v>3.4</v>
@@ -1139,71 +1139,71 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="I5" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="L5" t="n">
         <v>3.65</v>
       </c>
       <c r="M5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="X5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y5" t="n">
         <v>1.72</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF5" t="n">
         <v>45</v>
@@ -1212,31 +1212,31 @@
         <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.2</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM5" t="n">
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
         <v>12.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>37</v>
@@ -1245,7 +1245,7 @@
         <v>35</v>
       </c>
       <c r="AS5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1280,71 +1280,71 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.65</v>
+        <v>2.87</v>
       </c>
       <c r="T6" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="X6" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF6" t="n">
         <v>37</v>
@@ -1353,40 +1353,40 @@
         <v>32</v>
       </c>
       <c r="AH6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="AJ6" t="n">
         <v>5.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM6" t="n">
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1424,31 +1424,31 @@
         <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1457,10 +1457,10 @@
         <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1471,37 +1471,37 @@
         <v>1.13</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC7" t="n">
         <v>5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1510,7 +1510,7 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM7" t="n">
         <v>501</v>
@@ -1522,13 +1522,13 @@
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>51</v>
@@ -1566,50 +1566,50 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y8" t="n">
         <v>1.44</v>
@@ -1618,10 +1618,10 @@
         <v>2.63</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1633,16 +1633,16 @@
         <v>10</v>
       </c>
       <c r="AF8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG8" t="n">
         <v>23</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>6.5</v>
@@ -1657,16 +1657,16 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
@@ -1707,28 +1707,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1765,19 +1765,19 @@
         <v>1.91</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
@@ -1789,7 +1789,7 @@
         <v>6.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>51</v>
@@ -1801,16 +1801,16 @@
         <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS9" t="n">
         <v>34</v>
@@ -1851,65 +1851,69 @@
         <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>2.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
       <c r="S10" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1924,37 +1928,37 @@
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>6.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM10" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>8.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>17</v>
       </c>
       <c r="AR10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1992,7 +1996,7 @@
         <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
         <v>4.5</v>
@@ -2001,7 +2005,7 @@
         <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
@@ -2035,55 +2039,55 @@
         <v>1.22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM11" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AN11" t="n">
         <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
         <v>15</v>
@@ -2095,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -2412,16 +2416,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
@@ -2430,10 +2434,10 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2467,19 +2471,19 @@
         <v>1.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC14" t="n">
         <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
         <v>17</v>
@@ -2503,10 +2507,10 @@
         <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -710,10 +710,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -722,10 +722,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>2.6</v>
@@ -850,19 +850,19 @@
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -883,10 +883,10 @@
         <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -901,19 +901,19 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC3" t="n">
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>19</v>
@@ -925,7 +925,7 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>6.5</v>
@@ -934,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
         <v>1250</v>
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1020,10 +1020,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
         <v>2.6</v>
@@ -1059,16 +1059,16 @@
         <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1089,16 +1089,16 @@
         <v>1250</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1163,10 +1163,10 @@
         <v>4.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1179,22 +1179,22 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X5" t="n">
         <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AA5" t="n">
         <v>2.32</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AC5" t="n">
         <v>6</v>
@@ -1224,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
         <v>101</v>
@@ -1245,7 +1245,7 @@
         <v>35</v>
       </c>
       <c r="AS5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
         <v>2.65</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.55</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.65</v>
@@ -1312,10 +1312,10 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1326,22 +1326,22 @@
         <v>1.12</v>
       </c>
       <c r="Y6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.6</v>
       </c>
-      <c r="Z6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AC6" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>11.25</v>
@@ -1356,13 +1356,13 @@
         <v>55</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AJ6" t="n">
         <v>5.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>150</v>
@@ -1371,16 +1371,16 @@
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP6" t="n">
         <v>11.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR6" t="n">
         <v>35</v>
@@ -1421,19 +1421,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
         <v>4.5</v>
@@ -1471,10 +1471,10 @@
         <v>1.13</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA7" t="n">
         <v>2.38</v>
@@ -1486,13 +1486,13 @@
         <v>5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>26</v>
@@ -1516,13 +1516,13 @@
         <v>501</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1587,7 +1587,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1707,28 +1707,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1759,10 +1759,10 @@
         <v>2.63</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC9" t="n">
         <v>7.5</v>
@@ -1780,16 +1780,16 @@
         <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>6.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>51</v>
@@ -1798,7 +1798,7 @@
         <v>301</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -1848,66 +1848,66 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC10" t="n">
         <v>8.5</v>
@@ -1922,13 +1922,13 @@
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>6.5</v>
@@ -1937,13 +1937,13 @@
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="n">
         <v>501</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
         <v>8.5</v>
@@ -1955,10 +1955,10 @@
         <v>17</v>
       </c>
       <c r="AR10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1996,47 +1996,51 @@
         <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
         <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y11" t="n">
         <v>1.5</v>
@@ -2045,13 +2049,13 @@
         <v>2.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD11" t="n">
         <v>7.5</v>
@@ -2069,7 +2073,7 @@
         <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.5</v>
@@ -2081,16 +2085,16 @@
         <v>67</v>
       </c>
       <c r="AM11" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
@@ -2158,18 +2162,18 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2287,7 +2291,7 @@
         <v>1.91</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
         <v>7</v>
@@ -2321,49 +2325,49 @@
         <v>1.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AC13" t="n">
         <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
         <v>8.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN13" t="n">
         <v>19</v>
@@ -2372,7 +2376,7 @@
         <v>41</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>81</v>
@@ -2416,28 +2420,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2474,19 +2478,19 @@
         <v>1.91</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG14" t="n">
         <v>19</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2513,16 +2517,16 @@
         <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -734,10 +734,10 @@
         <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -752,22 +752,22 @@
         <v>2.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>9.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -791,22 +791,22 @@
         <v>1250</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR2" t="n">
         <v>51</v>
       </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
       <c r="AS2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -859,10 +859,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -990,121 +990,121 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
         <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AJ4" t="n">
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
         <v>1250</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP4" t="n">
         <v>12</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1148,19 +1148,19 @@
         <v>2.85</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="L5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M5" t="n">
         <v>1.19</v>
       </c>
       <c r="N5" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.72</v>
@@ -1185,10 +1185,10 @@
         <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
         <v>2.32</v>
@@ -1197,7 +1197,7 @@
         <v>1.55</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
@@ -1212,10 +1212,10 @@
         <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.2</v>
@@ -1230,22 +1230,22 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO5" t="n">
         <v>12.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ5" t="n">
         <v>37</v>
       </c>
       <c r="AR5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1286,83 +1286,83 @@
         <v>2.65</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.55</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD6" t="n">
         <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF6" t="n">
         <v>37</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="AJ6" t="n">
         <v>5.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>150</v>
@@ -1377,7 +1377,7 @@
         <v>11.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ6" t="n">
         <v>35</v>
@@ -1386,7 +1386,7 @@
         <v>35</v>
       </c>
       <c r="AS6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1465,10 +1465,10 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Y7" t="n">
         <v>1.62</v>
@@ -1707,98 +1707,102 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>6.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM9" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -1807,13 +1811,13 @@
         <v>11</v>
       </c>
       <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
         <v>29</v>
       </c>
-      <c r="AR9" t="n">
-        <v>23</v>
-      </c>
       <c r="AS9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1878,24 +1882,24 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y10" t="n">
         <v>1.57</v>
@@ -2014,13 +2018,13 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
         <v>1.78</v>
@@ -2073,7 +2077,7 @@
         <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.5</v>
@@ -2138,98 +2142,102 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.95</v>
+      </c>
       <c r="S12" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>10</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
       </c>
       <c r="AG12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK12" t="n">
         <v>19</v>
       </c>
-      <c r="AH12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2241,7 +2249,7 @@
         <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS12" t="n">
         <v>41</v>
@@ -2285,44 +2293,44 @@
         <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K13" t="n">
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="T13" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="X13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Y13" t="n">
         <v>1.36</v>
@@ -2331,13 +2339,13 @@
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2367,7 +2375,7 @@
         <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN13" t="n">
         <v>19</v>
@@ -2379,7 +2387,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2420,22 +2428,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2452,18 +2460,18 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y14" t="n">
         <v>1.4</v>
@@ -2478,16 +2486,16 @@
         <v>1.91</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>9.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,97 +692,97 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W2" t="n">
         <v>5.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5</v>
-      </c>
       <c r="X2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>81</v>
@@ -791,22 +791,22 @@
         <v>1250</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
         <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -883,7 +883,7 @@
         <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>1.23</v>
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.14</v>
@@ -1014,10 +1014,10 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1056,19 +1056,19 @@
         <v>1.53</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
         <v>12</v>
       </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
         <v>51</v>
@@ -1089,19 +1089,19 @@
         <v>1250</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS4" t="n">
         <v>51</v>
@@ -1154,19 +1154,19 @@
         <v>1.72</v>
       </c>
       <c r="L5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M5" t="n">
         <v>1.19</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1185,13 +1185,13 @@
         <v>1.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AB5" t="n">
         <v>1.55</v>
@@ -1215,7 +1215,7 @@
         <v>65</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.2</v>
@@ -1230,13 +1230,13 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
         <v>12.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>37</v>
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H6" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
         <v>2.77</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="O6" t="n">
         <v>1.7</v>
@@ -1312,15 +1312,15 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X6" t="n">
         <v>1.11</v>
@@ -1329,64 +1329,64 @@
         <v>1.62</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AJ6" t="n">
         <v>5.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM6" t="n">
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AQ6" t="n">
         <v>35</v>
       </c>
       <c r="AR6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
         <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1477,25 +1477,25 @@
         <v>2.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC7" t="n">
         <v>5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1519,7 +1519,7 @@
         <v>6.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -1528,7 +1528,7 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS7" t="n">
         <v>51</v>
@@ -1707,46 +1707,46 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.95</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1757,19 +1757,19 @@
         <v>1.17</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
         <v>10</v>
@@ -1787,7 +1787,7 @@
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ9" t="n">
         <v>6.5</v>
@@ -1802,13 +1802,13 @@
         <v>501</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ9" t="n">
         <v>34</v>
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -1864,7 +1864,7 @@
         <v>4.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
         <v>2.88</v>
@@ -1882,24 +1882,24 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y10" t="n">
         <v>1.57</v>
@@ -1908,19 +1908,19 @@
         <v>2.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1929,16 +1929,16 @@
         <v>41</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>6.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>81</v>
@@ -1950,7 +1950,7 @@
         <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP10" t="n">
         <v>9.5</v>
@@ -2015,16 +2015,16 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
         <v>1.78</v>
@@ -2077,7 +2077,7 @@
         <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.5</v>
@@ -2142,46 +2142,46 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2198,10 +2198,10 @@
         <v>2.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC12" t="n">
         <v>6</v>
@@ -2222,7 +2222,7 @@
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>6</v>
@@ -2237,16 +2237,16 @@
         <v>501</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>34</v>
@@ -2293,44 +2293,44 @@
         <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y13" t="n">
         <v>1.36</v>
@@ -2339,13 +2339,13 @@
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2375,7 +2375,7 @@
         <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN13" t="n">
         <v>19</v>
@@ -2387,7 +2387,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
@@ -2446,10 +2446,10 @@
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2460,18 +2460,18 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y14" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -722,10 +722,10 @@
         <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S2" t="n">
         <v>2.7</v>
@@ -734,10 +734,10 @@
         <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -761,7 +761,7 @@
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -803,7 +803,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
         <v>51</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1092,7 +1092,7 @@
         <v>6.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
         <v>2.45</v>
       </c>
       <c r="I5" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>1.72</v>
       </c>
       <c r="L5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M5" t="n">
         <v>1.19</v>
@@ -1191,16 +1191,16 @@
         <v>2.02</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
         <v>12.5</v>
@@ -1212,7 +1212,7 @@
         <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="n">
         <v>4.15</v>
@@ -1224,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM5" t="n">
         <v>101</v>
@@ -1236,10 +1236,10 @@
         <v>12.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR5" t="n">
         <v>37</v>
@@ -1283,47 +1283,47 @@
         <v>2.95</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="I6" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Y6" t="n">
         <v>1.62</v>
@@ -1332,49 +1332,49 @@
         <v>2.15</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF6" t="n">
         <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM6" t="n">
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP6" t="n">
         <v>11.25</v>
@@ -1386,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="AS6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1598,10 +1598,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1719,34 +1719,34 @@
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1769,7 +1769,7 @@
         <v>1.67</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
         <v>10</v>
@@ -1802,7 +1802,7 @@
         <v>501</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2015,10 +2015,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2027,24 +2027,24 @@
         <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y11" t="n">
         <v>1.5</v>
@@ -2145,25 +2145,25 @@
         <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2172,10 +2172,10 @@
         <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="n">
         <v>2.4</v>
@@ -2186,22 +2186,22 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AC12" t="n">
         <v>6</v>
@@ -2210,7 +2210,7 @@
         <v>9.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2219,10 +2219,10 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
         <v>6</v>
@@ -2428,113 +2428,113 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="X14" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>10</v>
       </c>
-      <c r="AE14" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AF14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
         <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -722,10 +722,10 @@
         <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
         <v>2.7</v>
@@ -761,7 +761,7 @@
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -770,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -803,7 +803,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
         <v>51</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -1014,10 +1014,10 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1032,10 +1032,10 @@
         <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
@@ -1280,113 +1280,113 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
         <v>2.65</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="P6" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM6" t="n">
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AO6" t="n">
         <v>11.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR6" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AS6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1445,10 +1445,10 @@
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
@@ -1584,32 +1584,32 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y8" t="n">
         <v>1.44</v>
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
@@ -1737,10 +1737,10 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
         <v>2.4</v>
@@ -1763,10 +1763,10 @@
         <v>2.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AC9" t="n">
         <v>6.5</v>
@@ -1802,7 +1802,7 @@
         <v>501</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2047,10 +2047,10 @@
         <v>1.18</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA11" t="n">
         <v>2.1</v>
@@ -2071,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
         <v>34</v>
@@ -2095,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2157,13 +2157,13 @@
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2172,16 +2172,16 @@
         <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2204,7 +2204,7 @@
         <v>1.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
         <v>9.5</v>
@@ -2222,7 +2222,7 @@
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>6</v>
@@ -2243,13 +2243,13 @@
         <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS12" t="n">
         <v>41</v>
@@ -2460,18 +2460,18 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y14" t="n">
         <v>1.53</v>
@@ -2516,7 +2516,7 @@
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AN14" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -707,13 +707,13 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -752,22 +752,22 @@
         <v>2.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC2" t="n">
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>81</v>
@@ -791,7 +791,7 @@
         <v>1250</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -901,22 +901,22 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC3" t="n">
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -928,13 +928,13 @@
         <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>1250</v>
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>13</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
@@ -1074,7 +1074,7 @@
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>6</v>
@@ -1092,7 +1092,7 @@
         <v>6.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1439,10 +1439,10 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.73</v>
@@ -1457,18 +1457,18 @@
         <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y7" t="n">
         <v>1.62</v>
@@ -1477,37 +1477,37 @@
         <v>2.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>101</v>
@@ -1519,16 +1519,16 @@
         <v>6.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>51</v>
@@ -1566,71 +1566,71 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="X8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>26</v>
@@ -1642,28 +1642,28 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ8" t="n">
         <v>26</v>
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
@@ -1737,10 +1737,10 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
         <v>2.4</v>
@@ -1751,10 +1751,10 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y9" t="n">
         <v>1.57</v>
@@ -1763,10 +1763,10 @@
         <v>2.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC9" t="n">
         <v>6.5</v>
@@ -1802,7 +1802,7 @@
         <v>501</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
@@ -1882,10 +1882,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S10" t="n">
         <v>2.5</v>
@@ -1908,55 +1908,55 @@
         <v>2.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH10" t="n">
         <v>41</v>
       </c>
-      <c r="AH10" t="n">
-        <v>51</v>
-      </c>
       <c r="AI10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM10" t="n">
         <v>501</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>21</v>
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2053,10 +2053,10 @@
         <v>2.38</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC11" t="n">
         <v>5.5</v>
@@ -2071,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
@@ -2083,10 +2083,10 @@
         <v>6.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="n">
         <v>501</v>
@@ -2095,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2145,31 +2145,31 @@
         <v>2.2</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.3</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.78</v>
@@ -2178,36 +2178,36 @@
         <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>9.5</v>
@@ -2216,28 +2216,28 @@
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2246,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
         <v>29</v>
@@ -2452,10 +2452,10 @@
         <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN14" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -761,13 +761,13 @@
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -794,7 +794,7 @@
         <v>8.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -1424,10 +1424,10 @@
         <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1457,18 +1457,18 @@
         <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y7" t="n">
         <v>1.62</v>
@@ -1477,19 +1477,19 @@
         <v>2.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
         <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
@@ -1501,7 +1501,7 @@
         <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J8" t="n">
         <v>3.5</v>
@@ -1581,13 +1581,13 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1595,21 +1595,25 @@
       <c r="P8" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.1</v>
+      </c>
       <c r="S8" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y8" t="n">
         <v>1.5</v>
@@ -1627,13 +1631,13 @@
         <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
         <v>23</v>
@@ -1654,7 +1658,7 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
         <v>7.5</v>
@@ -1663,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
         <v>26</v>
@@ -1707,19 +1711,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -1737,36 +1741,36 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AC9" t="n">
         <v>6.5</v>
@@ -1778,16 +1782,16 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
         <v>6.5</v>
@@ -1799,7 +1803,7 @@
         <v>67</v>
       </c>
       <c r="AM9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN9" t="n">
         <v>7.5</v>
@@ -1808,7 +1812,7 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
         <v>34</v>
@@ -1852,16 +1856,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -1882,10 +1886,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
         <v>2.5</v>
@@ -1914,10 +1918,10 @@
         <v>1.67</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1935,13 +1939,13 @@
         <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK10" t="n">
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="n">
         <v>501</v>
@@ -1950,13 +1954,13 @@
         <v>6</v>
       </c>
       <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
         <v>9.5</v>
       </c>
-      <c r="AP10" t="n">
-        <v>10</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>21</v>
@@ -2027,16 +2031,16 @@
         <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2142,16 +2146,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
@@ -2163,7 +2167,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -2207,13 +2211,13 @@
         <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
         <v>9.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
@@ -2237,7 +2241,7 @@
         <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2246,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>29</v>
@@ -2287,13 +2291,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
         <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>1.91</v>
@@ -2302,7 +2306,7 @@
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2319,18 +2323,18 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y13" t="n">
         <v>1.36</v>
@@ -2345,7 +2349,7 @@
         <v>1.75</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2375,7 +2379,7 @@
         <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN13" t="n">
         <v>19</v>
@@ -2387,7 +2391,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2443,7 +2447,7 @@
         <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2452,44 +2456,44 @@
         <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2504,19 +2508,19 @@
         <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN14" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -865,34 +865,34 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y3" t="n">
         <v>1.57</v>
@@ -907,25 +907,25 @@
         <v>1.67</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
@@ -940,19 +940,19 @@
         <v>1250</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>41</v>
@@ -1035,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-18.xlsx
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1026,22 +1026,22 @@
         <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Y4" t="n">
         <v>1.67</v>
@@ -1059,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1089,22 +1089,22 @@
         <v>1250</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
